--- a/EDA_Process/C_Morlet_SVM/game_time.xlsx
+++ b/EDA_Process/C_Morlet_SVM/game_time.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Howard_Feng\NAO_Music_Autism_Project\EDA_Process\C_Morlet_SVM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +23,112 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>101_02</t>
+  </si>
+  <si>
+    <t>101_03</t>
+  </si>
+  <si>
+    <t>101_04</t>
+  </si>
+  <si>
+    <t>101_05</t>
+  </si>
+  <si>
+    <t>102_02</t>
+  </si>
+  <si>
+    <t>102_03</t>
+  </si>
+  <si>
+    <t>102_04</t>
+  </si>
+  <si>
+    <t>102_05</t>
+  </si>
+  <si>
+    <t>102_06</t>
+  </si>
+  <si>
+    <t>103_02</t>
+  </si>
+  <si>
+    <t>103_03</t>
+  </si>
+  <si>
+    <t>103_04</t>
+  </si>
+  <si>
+    <t>103_05</t>
+  </si>
+  <si>
+    <t>104_02</t>
+  </si>
+  <si>
+    <t>104_03</t>
+  </si>
+  <si>
+    <t>104_04</t>
+  </si>
+  <si>
+    <t>104_05</t>
+  </si>
+  <si>
+    <t>105_02</t>
+  </si>
+  <si>
+    <t>105_03</t>
+  </si>
+  <si>
+    <t>105_04</t>
+  </si>
+  <si>
+    <t>105_05</t>
+  </si>
+  <si>
+    <t>106_02</t>
+  </si>
+  <si>
+    <t>106_03</t>
+  </si>
+  <si>
+    <t>106_04</t>
+  </si>
+  <si>
+    <t>106_05</t>
+  </si>
+  <si>
+    <t>107_02</t>
+  </si>
+  <si>
+    <t>107_03</t>
+  </si>
+  <si>
+    <t>107_04</t>
+  </si>
+  <si>
+    <t>107_05</t>
+  </si>
+  <si>
+    <t>110_02</t>
+  </si>
+  <si>
+    <t>110_03</t>
+  </si>
+  <si>
+    <t>110_04</t>
+  </si>
+  <si>
+    <t>110_05</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,14 +158,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -331,12 +469,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5.7928240740740738E-2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>6.1111111111111116E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.8414351851851846E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.1689814814814815E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.4062500000000008E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.9560185185185183E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.3437500000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.8425925925925922E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.149305555555555E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.2129629629629631E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.5023148148148148E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10393518518518519</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.10694444444444444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.6354166666666671E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.8611111111111108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.10844907407407407</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.11180555555555556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.4097222222222225E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.6585648148148147E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.53460648148148149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.52673611111111118</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.53009259259259256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.523900462962963</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.52696759259259263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.1810185185185185</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1851851851851852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.18796296296296297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.44212962962962959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.44103009259259257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.51585648148148155</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.52233796296296298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.47378472222222223</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.47795138888888888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.4377314814814815</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.44137731481481479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.44635416666666666</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.44965277777777773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.10729166666666667</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.11979166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.18425925925925926</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.20283564814814814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.49479166666666669</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.50856481481481486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.10509259259259258</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.12430555555555556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.18171296296296294</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.18628472222222223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.23038194444444446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.20156250000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.20381944444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.14212962962962963</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.14450231481481482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.3067129629629638E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.6597222222222222E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.44085648148148149</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.44542824074074078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.48645833333333338</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.40711805555555558</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>